--- a/app/volumen/datos.xlsx
+++ b/app/volumen/datos.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Articulo 1</t>
   </si>
   <si>
     <t xml:space="preserve">Articulo 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articulo 3</t>
   </si>
   <si>
     <t xml:space="preserve">Articulo 4</t>
@@ -55,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,10 +143,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
   </cols>
@@ -158,21 +162,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
